--- a/automation/Repository/Search.xlsx
+++ b/automation/Repository/Search.xlsx
@@ -12,9 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="4940"/>
   </bookViews>
   <sheets>
-    <sheet name="Search" sheetId="1" r:id="rId1"/>
+    <sheet name="Search" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,42 +24,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Contract</t>
   </si>
   <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
     <t>VIN</t>
   </si>
   <si>
-    <t>Mohit</t>
-  </si>
-  <si>
-    <t>Goel</t>
-  </si>
-  <si>
-    <t>1A235544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
-    <t>Hello</t>
-  </si>
-  <si>
-    <t>ACBCCC</t>
-  </si>
-  <si>
-    <t>12/12/1988</t>
-  </si>
-  <si>
-    <t>122</t>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>iteration</t>
+  </si>
+  <si>
+    <t>First_Name</t>
+  </si>
+  <si>
+    <t>Program_Code</t>
+  </si>
+  <si>
+    <t>Primary_Payee_ID</t>
+  </si>
+  <si>
+    <t>Primary_Seller_Name</t>
+  </si>
+  <si>
+    <t>Primary_Seller_ID</t>
+  </si>
+  <si>
+    <t>Primary_Seller_Type</t>
+  </si>
+  <si>
+    <t>From_Sale_Date</t>
+  </si>
+  <si>
+    <t>To_Sale_Date</t>
+  </si>
+  <si>
+    <t>Secondary_Seller_Name</t>
+  </si>
+  <si>
+    <t>Secondary_Seller_ID</t>
+  </si>
+  <si>
+    <t>Secondary_Seller_Type</t>
+  </si>
+  <si>
+    <t>From_Trans_Date</t>
+  </si>
+  <si>
+    <t>To_Trans_Date</t>
+  </si>
+  <si>
+    <t>Post_Period</t>
+  </si>
+  <si>
+    <t>saddas</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Last_Name</t>
   </si>
 </sst>
 </file>
@@ -380,88 +422,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" customWidth="1"/>
+    <col min="8" max="8" width="3.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1"/>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" t="s">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="U4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="2" t="s">
-        <v>10</v>
+      <c r="V4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A6" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/automation/Repository/Search.xlsx
+++ b/automation/Repository/Search.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Contract</t>
   </si>
@@ -424,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -518,8 +518,32 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
       <c r="G2" t="s">
         <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">

--- a/automation/Repository/Search.xlsx
+++ b/automation/Repository/Search.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>Contract</t>
   </si>
@@ -50,9 +50,6 @@
     <t>NY</t>
   </si>
   <si>
-    <t>iteration</t>
-  </si>
-  <si>
     <t>First_Name</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
   </si>
   <si>
     <t>saddas</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>Last_Name</t>
@@ -137,11 +131,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,54 +415,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:V2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" customWidth="1"/>
-    <col min="8" max="8" width="3.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" customWidth="1"/>
+    <col min="7" max="7" width="3.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
@@ -507,61 +499,79 @@
       <c r="U1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>24</v>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="R2" t="s">
+        <v>22</v>
       </c>
       <c r="S2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="U2" t="s">
         <v>6</v>
       </c>
-      <c r="V2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="U4" t="s">
-        <v>6</v>
-      </c>
-      <c r="V4" t="s">
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="F7" t="s">
         <v>6</v>
       </c>
     </row>

--- a/automation/Repository/Search.xlsx
+++ b/automation/Repository/Search.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
-    <t>Contract</t>
-  </si>
-  <si>
     <t>VIN</t>
   </si>
   <si>
@@ -50,9 +47,6 @@
     <t>NY</t>
   </si>
   <si>
-    <t>First_Name</t>
-  </si>
-  <si>
     <t>Program_Code</t>
   </si>
   <si>
@@ -95,7 +89,13 @@
     <t>saddas</t>
   </si>
   <si>
-    <t>Last_Name</t>
+    <t>CERT</t>
+  </si>
+  <si>
+    <t>CUSTOMER_FIRST</t>
+  </si>
+  <si>
+    <t>CUSTOMER_LAST</t>
   </si>
 </sst>
 </file>
@@ -418,7 +418,7 @@
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -437,142 +437,142 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="F5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
         <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="F7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/automation/Repository/Search.xlsx
+++ b/automation/Repository/Search.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="4940"/>
   </bookViews>
   <sheets>
-    <sheet name="Search" sheetId="2" r:id="rId1"/>
+    <sheet name="TC_01_10" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -418,7 +418,7 @@
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/automation/Repository/Search.xlsx
+++ b/automation/Repository/Search.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Automation\Automation\automation\Repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\JavaOcean\automation\Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -418,7 +418,7 @@
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
